--- a/data/output/BG Perf_Wk 2023023.xlsx
+++ b/data/output/BG Perf_Wk 2023023.xlsx
@@ -786,10 +786,10 @@
         <v>4190.46935939</v>
       </c>
       <c r="AE4" t="n">
-        <v>1137.61435745</v>
+        <v>1255.08231567</v>
       </c>
       <c r="AF4" t="n">
-        <v>1120.96462664</v>
+        <v>1241.94843748</v>
       </c>
     </row>
     <row r="5">
@@ -882,13 +882,13 @@
         <v>6300.30916796</v>
       </c>
       <c r="AC5" t="n">
-        <v>7627.82436183</v>
+        <v>7627.82638062</v>
       </c>
       <c r="AD5" t="n">
         <v>7721.318260659999</v>
       </c>
       <c r="AE5" t="n">
-        <v>2315.08326257</v>
+        <v>2315.08528136</v>
       </c>
       <c r="AF5" t="n">
         <v>2403.33973334</v>

--- a/data/output/BG Perf_Wk 2023023.xlsx
+++ b/data/output/BG Perf_Wk 2023023.xlsx
@@ -780,16 +780,16 @@
         <v>3317.08010707</v>
       </c>
       <c r="AC4" t="n">
-        <v>4266.97374204</v>
+        <v>4266.96992375</v>
       </c>
       <c r="AD4" t="n">
         <v>4190.46935939</v>
       </c>
       <c r="AE4" t="n">
-        <v>1255.08231567</v>
+        <v>1367.94821036</v>
       </c>
       <c r="AF4" t="n">
-        <v>1241.94843748</v>
+        <v>1361.4206082</v>
       </c>
     </row>
     <row r="5">
@@ -882,13 +882,13 @@
         <v>6300.30916796</v>
       </c>
       <c r="AC5" t="n">
-        <v>7627.82638062</v>
+        <v>7627.82726562</v>
       </c>
       <c r="AD5" t="n">
         <v>7721.318260659999</v>
       </c>
       <c r="AE5" t="n">
-        <v>2315.08528136</v>
+        <v>2316.00017723</v>
       </c>
       <c r="AF5" t="n">
         <v>2403.33973334</v>
@@ -984,16 +984,16 @@
         <v>1516.00099429</v>
       </c>
       <c r="AC6" t="n">
-        <v>1272.30132033</v>
+        <v>1468.64839043</v>
       </c>
       <c r="AD6" t="n">
-        <v>1516.00099429</v>
+        <v>1724.94262485</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>514.05988069</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>541.51772262</v>
       </c>
     </row>
     <row r="7">
